--- a/data/trans_orig/IP2905_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2905_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{400342B4-92CB-4E6E-95D3-A4407F885B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C2F96BC-942F-4AB1-A2A9-5BFB63EFE934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{347E50FC-D6E7-4062-BA09-A4D3FFEB7B2B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B10D8283-CD24-44B6-88B1-AB8A0EF0E185}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
-  <si>
-    <t>Menores según si su única lactáncia durante los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+  <si>
+    <t>Menores según si su única lactancia durante los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -101,19 +101,19 @@
     <t>41,96%</t>
   </si>
   <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
   </si>
   <si>
     <t>58,68%</t>
   </si>
   <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>49,9%</t>
@@ -122,31 +122,31 @@
     <t>40,5%</t>
   </si>
   <si>
-    <t>58,79%</t>
+    <t>57,99%</t>
   </si>
   <si>
     <t>58,04%</t>
   </si>
   <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>41,32%</t>
   </si>
   <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
   </si>
   <si>
     <t>50,1%</t>
   </si>
   <si>
-    <t>41,21%</t>
+    <t>42,01%</t>
   </si>
   <si>
     <t>59,5%</t>
@@ -158,55 +158,55 @@
     <t>48,16%</t>
   </si>
   <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
   </si>
   <si>
     <t>45,63%</t>
   </si>
   <si>
-    <t>41,88%</t>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
   </si>
   <si>
     <t>50,15%</t>
   </si>
   <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
     <t>51,84%</t>
   </si>
   <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
   </si>
   <si>
     <t>54,37%</t>
   </si>
   <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
     <t>49,85%</t>
   </si>
   <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
+    <t>55,96%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,70 +215,55 @@
     <t>59,12%</t>
   </si>
   <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>62,22%</t>
   </si>
   <si>
     <t>40,88%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>37,78%</t>
   </si>
   <si>
     <t>50,32%</t>
   </si>
   <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
   </si>
   <si>
     <t>49,12%</t>
   </si>
   <si>
-    <t>52,66%</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>49,76%</t>
@@ -287,28 +272,31 @@
     <t>47,38%</t>
   </si>
   <si>
-    <t>52,6%</t>
+    <t>52,19%</t>
   </si>
   <si>
     <t>49,68%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
   </si>
   <si>
     <t>50,88%</t>
   </si>
   <si>
-    <t>47,34%</t>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
   </si>
   <si>
     <t>50,24%</t>
   </si>
   <si>
-    <t>47,4%</t>
+    <t>47,81%</t>
   </si>
   <si>
     <t>52,62%</t>
@@ -726,7 +714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4099173-AEC4-4306-92A1-480A8A70DB1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B89FE5-7D01-4184-80F5-09A81B18519F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -996,7 +984,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>23296</v>
+        <v>23295</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -1098,7 +1086,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="7">
-        <v>55514</v>
+        <v>55513</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>18</v>
@@ -1324,13 +1312,13 @@
         <v>82095</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>256</v>
@@ -1339,13 +1327,13 @@
         <v>182635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,13 +1348,13 @@
         <v>69528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -1375,13 +1363,13 @@
         <v>63211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="M14" s="7">
         <v>193</v>
@@ -1390,13 +1378,13 @@
         <v>132740</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,13 +1452,13 @@
         <v>354147</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>448</v>
@@ -1479,13 +1467,13 @@
         <v>306252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>923</v>
@@ -1494,13 +1482,13 @@
         <v>660399</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,13 +1503,13 @@
         <v>349607</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>458</v>
@@ -1530,13 +1518,13 @@
         <v>317174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>915</v>
@@ -1545,13 +1533,13 @@
         <v>666781</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,7 +1595,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2905_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2905_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C2F96BC-942F-4AB1-A2A9-5BFB63EFE934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A9FE3BD-497F-4CB3-8D33-DB55643F8FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B10D8283-CD24-44B6-88B1-AB8A0EF0E185}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7E69847C-3A93-467F-91E4-662B9758E884}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si su única lactancia durante los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,241 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
   </si>
   <si>
     <t>49,76%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
   </si>
   <si>
     <t>50,24%</t>
   </si>
   <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -714,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B89FE5-7D01-4184-80F5-09A81B18519F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164685B9-F7C7-42E6-95D8-DB43E434C472}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -832,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D4" s="7">
+        <v>32295</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>25401</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>57696</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21404</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>32944</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>54347</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -930,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>287</v>
+      </c>
+      <c r="D7" s="7">
+        <v>193509</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>308</v>
+      </c>
+      <c r="I7" s="7">
+        <v>244096</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="7">
-        <v>23295</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="7">
-        <v>29431</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="M7" s="7">
-        <v>72</v>
+        <v>595</v>
       </c>
       <c r="N7" s="7">
-        <v>52726</v>
+        <v>437605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>332</v>
+      </c>
+      <c r="D8" s="7">
+        <v>226409</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7">
-        <v>32218</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>317</v>
       </c>
       <c r="I8" s="7">
-        <v>20723</v>
+        <v>257975</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>72</v>
+        <v>649</v>
       </c>
       <c r="N8" s="7">
-        <v>52941</v>
+        <v>484384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1083,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>619</v>
       </c>
       <c r="D9" s="7">
-        <v>55513</v>
+        <v>419918</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>625</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>502071</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>1244</v>
       </c>
       <c r="N9" s="7">
-        <v>105667</v>
+        <v>921989</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="D10" s="7">
-        <v>230311</v>
+        <v>81269</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>194726</v>
+        <v>106585</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>595</v>
+        <v>256</v>
       </c>
       <c r="N10" s="7">
-        <v>425037</v>
+        <v>187853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>317</v>
+        <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>247861</v>
+        <v>62263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="I11" s="7">
-        <v>232069</v>
+        <v>72044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>649</v>
+        <v>193</v>
       </c>
       <c r="N11" s="7">
-        <v>479929</v>
+        <v>134307</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>625</v>
+        <v>219</v>
       </c>
       <c r="D12" s="7">
-        <v>478172</v>
+        <v>143532</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>619</v>
+        <v>230</v>
       </c>
       <c r="I12" s="7">
-        <v>426795</v>
+        <v>178629</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1244</v>
+        <v>449</v>
       </c>
       <c r="N12" s="7">
-        <v>904966</v>
+        <v>322160</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>132</v>
+        <v>448</v>
       </c>
       <c r="D13" s="7">
-        <v>100541</v>
+        <v>307072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>124</v>
+        <v>475</v>
       </c>
       <c r="I13" s="7">
-        <v>82095</v>
+        <v>376082</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>256</v>
+        <v>923</v>
       </c>
       <c r="N13" s="7">
-        <v>182635</v>
+        <v>683154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>98</v>
+        <v>457</v>
       </c>
       <c r="D14" s="7">
-        <v>69528</v>
+        <v>310076</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>95</v>
+        <v>457</v>
       </c>
       <c r="I14" s="7">
-        <v>63211</v>
+        <v>362962</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>193</v>
+        <v>914</v>
       </c>
       <c r="N14" s="7">
-        <v>132740</v>
+        <v>673038</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>230</v>
+        <v>905</v>
       </c>
       <c r="D15" s="7">
-        <v>170069</v>
+        <v>617148</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>219</v>
+        <v>932</v>
       </c>
       <c r="I15" s="7">
-        <v>145306</v>
+        <v>739044</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>449</v>
+        <v>1837</v>
       </c>
       <c r="N15" s="7">
-        <v>315375</v>
+        <v>1356192</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>475</v>
-      </c>
-      <c r="D16" s="7">
-        <v>354147</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="7">
-        <v>448</v>
-      </c>
-      <c r="I16" s="7">
-        <v>306252</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="7">
-        <v>923</v>
-      </c>
-      <c r="N16" s="7">
-        <v>660399</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>457</v>
-      </c>
-      <c r="D17" s="7">
-        <v>349607</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="7">
-        <v>458</v>
-      </c>
-      <c r="I17" s="7">
-        <v>317174</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="7">
-        <v>915</v>
-      </c>
-      <c r="N17" s="7">
-        <v>666781</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>932</v>
-      </c>
-      <c r="D18" s="7">
-        <v>703754</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>906</v>
-      </c>
-      <c r="I18" s="7">
-        <v>623426</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1838</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1327180</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
